--- a/estructuras.xlsx
+++ b/estructuras.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rrcastillo\OneDrive - ine.gob.gt\ENCABIH\Validador\INE_ValidacionENCOVI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F8CA55E-F193-4557-BB7D-FE81E45F280B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FAE4C23-358D-4E7F-AA14-AAA0D042F578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{5DF76A10-6C90-44E7-B2E0-BC24ACCD86DF}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1900" uniqueCount="1335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1894" uniqueCount="1331">
   <si>
     <t>Capítulo</t>
   </si>
@@ -3176,18 +3176,6 @@
   </si>
   <si>
     <t>P09A19 = 98 &amp; P09A19A = ""</t>
-  </si>
-  <si>
-    <t>09B0101</t>
-  </si>
-  <si>
-    <t>Mujer soltera y nunca ha tenido novio con información en capítulo en pareja</t>
-  </si>
-  <si>
-    <t>Se registro que el estado conyugal de la entrevistada es soltara y nunca ha tenido novio y se registra información en la sección de tensiones y conflictos del capítulo en la pareja.</t>
-  </si>
-  <si>
-    <t>P04A08 = 1 &amp; (P09B01 no es (vacío) | P09B02 no es (vacío) | P09B03 no es (vacío) | P09B04 no es (vacío))</t>
   </si>
   <si>
     <t>09C0101</t>
@@ -5413,8 +5401,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
@@ -5422,6 +5408,8 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
@@ -8372,8 +8360,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="85"/>
-      <c r="B1" s="85"/>
+      <c r="A1" s="88"/>
+      <c r="B1" s="88"/>
       <c r="C1" s="21"/>
       <c r="D1" s="21"/>
     </row>
@@ -8386,8 +8374,8 @@
       <c r="D2" s="21"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="85"/>
-      <c r="B3" s="85"/>
+      <c r="A3" s="88"/>
+      <c r="B3" s="88"/>
       <c r="C3" s="21"/>
       <c r="D3" s="21"/>
     </row>
@@ -8400,72 +8388,72 @@
       <c r="D4" s="21"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="85"/>
-      <c r="B5" s="85"/>
+      <c r="A5" s="88"/>
+      <c r="B5" s="88"/>
       <c r="C5" s="21"/>
       <c r="D5" s="21"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="86"/>
-      <c r="B6" s="87" t="s">
+      <c r="A6" s="84"/>
+      <c r="B6" s="85" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="D6" s="84"/>
+      <c r="D6" s="87"/>
     </row>
     <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="86"/>
-      <c r="B7" s="88"/>
+      <c r="A7" s="84"/>
+      <c r="B7" s="86"/>
       <c r="C7" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="D7" s="84"/>
+      <c r="D7" s="87"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="86"/>
-      <c r="B8" s="87" t="s">
+      <c r="A8" s="84"/>
+      <c r="B8" s="85" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="D8" s="84"/>
+      <c r="D8" s="87"/>
     </row>
     <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="86"/>
+      <c r="A9" s="84"/>
       <c r="B9" s="89"/>
       <c r="C9" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="D9" s="84"/>
+      <c r="D9" s="87"/>
     </row>
     <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="86"/>
-      <c r="B10" s="88"/>
+      <c r="A10" s="84"/>
+      <c r="B10" s="86"/>
       <c r="C10" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="D10" s="84"/>
+      <c r="D10" s="87"/>
     </row>
     <row r="11" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="86"/>
-      <c r="B11" s="87" t="s">
+      <c r="A11" s="84"/>
+      <c r="B11" s="85" t="s">
         <v>145</v>
       </c>
       <c r="C11" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="D11" s="84"/>
+      <c r="D11" s="87"/>
     </row>
     <row r="12" spans="1:4" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="86"/>
-      <c r="B12" s="88"/>
+      <c r="A12" s="84"/>
+      <c r="B12" s="86"/>
       <c r="C12" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="D12" s="84"/>
+      <c r="D12" s="87"/>
     </row>
     <row r="13" spans="1:4" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A13" s="21"/>
@@ -8488,186 +8476,186 @@
       <c r="D14" s="21"/>
     </row>
     <row r="15" spans="1:4" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="86"/>
-      <c r="B15" s="87" t="s">
+      <c r="A15" s="84"/>
+      <c r="B15" s="85" t="s">
         <v>152</v>
       </c>
       <c r="C15" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="D15" s="84"/>
+      <c r="D15" s="87"/>
     </row>
     <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="86"/>
+      <c r="A16" s="84"/>
       <c r="B16" s="89"/>
       <c r="C16" s="26" t="s">
         <v>154</v>
       </c>
-      <c r="D16" s="84"/>
+      <c r="D16" s="87"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="86"/>
+      <c r="A17" s="84"/>
       <c r="B17" s="89"/>
       <c r="C17" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="D17" s="84"/>
+      <c r="D17" s="87"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="86"/>
+      <c r="A18" s="84"/>
       <c r="B18" s="89"/>
       <c r="C18" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="D18" s="84"/>
+      <c r="D18" s="87"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="86"/>
+      <c r="A19" s="84"/>
       <c r="B19" s="89"/>
       <c r="C19" s="30" t="s">
         <v>157</v>
       </c>
-      <c r="D19" s="84"/>
+      <c r="D19" s="87"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="86"/>
-      <c r="B20" s="88"/>
+      <c r="A20" s="84"/>
+      <c r="B20" s="86"/>
       <c r="C20" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="D20" s="84"/>
+      <c r="D20" s="87"/>
     </row>
     <row r="21" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="86"/>
-      <c r="B21" s="87" t="s">
+      <c r="A21" s="84"/>
+      <c r="B21" s="85" t="s">
         <v>159</v>
       </c>
       <c r="C21" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="D21" s="84"/>
+      <c r="D21" s="87"/>
     </row>
     <row r="22" spans="1:4" ht="42" x14ac:dyDescent="0.35">
-      <c r="A22" s="86"/>
+      <c r="A22" s="84"/>
       <c r="B22" s="89"/>
       <c r="C22" s="31" t="s">
         <v>161</v>
       </c>
-      <c r="D22" s="84"/>
+      <c r="D22" s="87"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="86"/>
+      <c r="A23" s="84"/>
       <c r="B23" s="89"/>
       <c r="C23" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="D23" s="84"/>
+      <c r="D23" s="87"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="86"/>
+      <c r="A24" s="84"/>
       <c r="B24" s="89"/>
       <c r="C24" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="D24" s="84"/>
+      <c r="D24" s="87"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="86"/>
+      <c r="A25" s="84"/>
       <c r="B25" s="89"/>
       <c r="C25" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="D25" s="84"/>
+      <c r="D25" s="87"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="86"/>
+      <c r="A26" s="84"/>
       <c r="B26" s="89"/>
       <c r="C26" s="26" t="s">
         <v>163</v>
       </c>
-      <c r="D26" s="84"/>
+      <c r="D26" s="87"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="86"/>
+      <c r="A27" s="84"/>
       <c r="B27" s="89"/>
       <c r="C27" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="D27" s="84"/>
+      <c r="D27" s="87"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="86"/>
+      <c r="A28" s="84"/>
       <c r="B28" s="89"/>
       <c r="C28" s="26" t="s">
         <v>164</v>
       </c>
-      <c r="D28" s="84"/>
+      <c r="D28" s="87"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="86"/>
+      <c r="A29" s="84"/>
       <c r="B29" s="89"/>
       <c r="C29" s="30" t="s">
         <v>157</v>
       </c>
-      <c r="D29" s="84"/>
+      <c r="D29" s="87"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="86"/>
+      <c r="A30" s="84"/>
       <c r="B30" s="89"/>
       <c r="C30" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="D30" s="84"/>
+      <c r="D30" s="87"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="86"/>
+      <c r="A31" s="84"/>
       <c r="B31" s="89"/>
       <c r="C31" s="30" t="s">
         <v>157</v>
       </c>
-      <c r="D31" s="84"/>
+      <c r="D31" s="87"/>
     </row>
     <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="86"/>
+      <c r="A32" s="84"/>
       <c r="B32" s="89"/>
       <c r="C32" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="D32" s="84"/>
+      <c r="D32" s="87"/>
     </row>
     <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="86"/>
-      <c r="B33" s="87" t="s">
+      <c r="A33" s="84"/>
+      <c r="B33" s="85" t="s">
         <v>167</v>
       </c>
       <c r="C33" s="24" t="s">
         <v>168</v>
       </c>
-      <c r="D33" s="84"/>
+      <c r="D33" s="87"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="86"/>
+      <c r="A34" s="84"/>
       <c r="B34" s="89"/>
       <c r="C34" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="D34" s="84"/>
+      <c r="D34" s="87"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="86"/>
+      <c r="A35" s="84"/>
       <c r="B35" s="89"/>
       <c r="C35" s="26" t="s">
         <v>170</v>
       </c>
-      <c r="D35" s="84"/>
+      <c r="D35" s="87"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="86"/>
-      <c r="B36" s="88"/>
+      <c r="A36" s="84"/>
+      <c r="B36" s="86"/>
       <c r="C36" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="D36" s="84"/>
+      <c r="D36" s="87"/>
     </row>
     <row r="37" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A37" s="21"/>
@@ -8680,89 +8668,107 @@
       <c r="D37" s="21"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="86"/>
-      <c r="B38" s="87" t="s">
+      <c r="A38" s="84"/>
+      <c r="B38" s="85" t="s">
         <v>174</v>
       </c>
       <c r="C38" s="24" t="s">
         <v>175</v>
       </c>
-      <c r="D38" s="84"/>
+      <c r="D38" s="87"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="86"/>
+      <c r="A39" s="84"/>
       <c r="B39" s="89"/>
       <c r="C39" s="34" t="s">
         <v>176</v>
       </c>
-      <c r="D39" s="84"/>
+      <c r="D39" s="87"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="86"/>
+      <c r="A40" s="84"/>
       <c r="B40" s="89"/>
       <c r="C40" s="26" t="s">
         <v>177</v>
       </c>
-      <c r="D40" s="84"/>
+      <c r="D40" s="87"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="86"/>
+      <c r="A41" s="84"/>
       <c r="B41" s="89"/>
       <c r="C41" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="D41" s="84"/>
+      <c r="D41" s="87"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="86"/>
+      <c r="A42" s="84"/>
       <c r="B42" s="89"/>
       <c r="C42" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="D42" s="84"/>
+      <c r="D42" s="87"/>
     </row>
     <row r="43" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="86"/>
+      <c r="A43" s="84"/>
       <c r="B43" s="89"/>
       <c r="C43" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="D43" s="84"/>
+      <c r="D43" s="87"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="86"/>
-      <c r="B44" s="88"/>
+      <c r="A44" s="84"/>
+      <c r="B44" s="86"/>
       <c r="C44" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="D44" s="84"/>
+      <c r="D44" s="87"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="86"/>
-      <c r="B45" s="87" t="s">
+      <c r="A45" s="84"/>
+      <c r="B45" s="85" t="s">
         <v>182</v>
       </c>
       <c r="C45" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="D45" s="84"/>
+      <c r="D45" s="87"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="86"/>
-      <c r="B46" s="88"/>
+      <c r="A46" s="84"/>
+      <c r="B46" s="86"/>
       <c r="C46" s="35" t="s">
         <v>184</v>
       </c>
-      <c r="D46" s="84"/>
+      <c r="D46" s="87"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="85"/>
-      <c r="B47" s="85"/>
+      <c r="A47" s="88"/>
+      <c r="B47" s="88"/>
       <c r="C47" s="21"/>
       <c r="D47" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="B15:B20"/>
+    <mergeCell ref="D15:D20"/>
+    <mergeCell ref="A21:A32"/>
+    <mergeCell ref="B21:B32"/>
+    <mergeCell ref="D21:D32"/>
     <mergeCell ref="A45:A46"/>
     <mergeCell ref="B45:B46"/>
     <mergeCell ref="D45:D46"/>
@@ -8773,24 +8779,6 @@
     <mergeCell ref="A38:A44"/>
     <mergeCell ref="B38:B44"/>
     <mergeCell ref="D38:D44"/>
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="B15:B20"/>
-    <mergeCell ref="D15:D20"/>
-    <mergeCell ref="A21:A32"/>
-    <mergeCell ref="B21:B32"/>
-    <mergeCell ref="D21:D32"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8816,8 +8804,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="85"/>
-      <c r="B1" s="85"/>
+      <c r="A1" s="88"/>
+      <c r="B1" s="88"/>
       <c r="C1" s="21"/>
       <c r="D1" s="21"/>
       <c r="E1" s="21"/>
@@ -8922,8 +8910,8 @@
       <c r="F8" s="21"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="85"/>
-      <c r="B9" s="85"/>
+      <c r="A9" s="88"/>
+      <c r="B9" s="88"/>
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -8986,8 +8974,8 @@
       <c r="F13" s="21"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="85"/>
-      <c r="B14" s="85"/>
+      <c r="A14" s="88"/>
+      <c r="B14" s="88"/>
       <c r="C14" s="21"/>
       <c r="D14" s="21"/>
       <c r="E14" s="21"/>
@@ -9014,8 +9002,8 @@
       <c r="F16" s="21"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="85"/>
-      <c r="B17" s="85"/>
+      <c r="A17" s="88"/>
+      <c r="B17" s="88"/>
       <c r="C17" s="65" t="s">
         <v>4</v>
       </c>
@@ -9060,8 +9048,8 @@
       <c r="F19" s="21"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="85"/>
-      <c r="B20" s="85"/>
+      <c r="A20" s="88"/>
+      <c r="B20" s="88"/>
       <c r="C20" s="21"/>
       <c r="D20" s="21"/>
       <c r="E20" s="21"/>
@@ -9098,8 +9086,8 @@
       <c r="F23" s="21"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="85"/>
-      <c r="B24" s="85"/>
+      <c r="A24" s="88"/>
+      <c r="B24" s="88"/>
       <c r="C24" s="21"/>
       <c r="D24" s="21"/>
       <c r="E24" s="21"/>
@@ -9116,8 +9104,8 @@
       <c r="F25" s="21"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="85"/>
-      <c r="B26" s="85"/>
+      <c r="A26" s="88"/>
+      <c r="B26" s="88"/>
       <c r="C26" s="65" t="s">
         <v>4</v>
       </c>
@@ -9156,8 +9144,8 @@
       <c r="F28" s="21"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="85"/>
-      <c r="B29" s="85"/>
+      <c r="A29" s="88"/>
+      <c r="B29" s="88"/>
       <c r="C29" s="21"/>
       <c r="D29" s="21"/>
       <c r="E29" s="21"/>
@@ -9183,11 +9171,11 @@
   <sheetPr>
     <tabColor rgb="FFC557E7"/>
   </sheetPr>
-  <dimension ref="A1:M199"/>
+  <dimension ref="A1:M198"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G99" sqref="G99"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A153" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H167" sqref="H167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12534,7 +12522,7 @@
         <v>662</v>
       </c>
       <c r="H95" s="79" t="s">
-        <v>1328</v>
+        <v>1324</v>
       </c>
       <c r="I95" s="78"/>
       <c r="J95" s="78"/>
@@ -14196,7 +14184,7 @@
         <v>826</v>
       </c>
       <c r="H147" s="79" t="s">
-        <v>1329</v>
+        <v>1325</v>
       </c>
       <c r="I147" s="78"/>
       <c r="J147" s="78"/>
@@ -14589,12 +14577,12 @@
         <v>256</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A160" s="78">
         <v>9</v>
       </c>
       <c r="B160" s="78" t="s">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="C160" s="78">
         <v>1</v>
@@ -14612,7 +14600,7 @@
         <v>877</v>
       </c>
       <c r="H160" s="79" t="s">
-        <v>878</v>
+        <v>1326</v>
       </c>
       <c r="I160" s="78"/>
       <c r="J160" s="78"/>
@@ -14621,7 +14609,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="161" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" s="78">
         <v>9</v>
       </c>
@@ -14632,19 +14620,19 @@
         <v>1</v>
       </c>
       <c r="D161" s="78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E161" s="78" t="s">
+        <v>878</v>
+      </c>
+      <c r="F161" s="78" t="s">
         <v>879</v>
       </c>
-      <c r="F161" s="78" t="s">
+      <c r="G161" s="78" t="s">
         <v>880</v>
       </c>
-      <c r="G161" s="78" t="s">
-        <v>881</v>
-      </c>
       <c r="H161" s="79" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
       <c r="I161" s="78"/>
       <c r="J161" s="78"/>
@@ -14664,19 +14652,19 @@
         <v>1</v>
       </c>
       <c r="D162" s="78">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E162" s="78" t="s">
+        <v>881</v>
+      </c>
+      <c r="F162" s="78" t="s">
         <v>882</v>
       </c>
-      <c r="F162" s="78" t="s">
+      <c r="G162" s="78" t="s">
         <v>883</v>
       </c>
-      <c r="G162" s="78" t="s">
-        <v>884</v>
-      </c>
       <c r="H162" s="79" t="s">
-        <v>1331</v>
+        <v>1328</v>
       </c>
       <c r="I162" s="78"/>
       <c r="J162" s="78"/>
@@ -14696,19 +14684,19 @@
         <v>1</v>
       </c>
       <c r="D163" s="78">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E163" s="78" t="s">
+        <v>884</v>
+      </c>
+      <c r="F163" s="78" t="s">
         <v>885</v>
       </c>
-      <c r="F163" s="78" t="s">
+      <c r="G163" s="78" t="s">
         <v>886</v>
       </c>
-      <c r="G163" s="78" t="s">
+      <c r="H163" s="79" t="s">
         <v>887</v>
-      </c>
-      <c r="H163" s="79" t="s">
-        <v>1332</v>
       </c>
       <c r="I163" s="78"/>
       <c r="J163" s="78"/>
@@ -14725,10 +14713,10 @@
         <v>340</v>
       </c>
       <c r="C164" s="78">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D164" s="78">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E164" s="78" t="s">
         <v>888</v>
@@ -14760,7 +14748,7 @@
         <v>5</v>
       </c>
       <c r="D165" s="78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E165" s="78" t="s">
         <v>892</v>
@@ -14781,7 +14769,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A166" s="78">
         <v>9</v>
       </c>
@@ -14789,10 +14777,10 @@
         <v>340</v>
       </c>
       <c r="C166" s="78">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D166" s="78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E166" s="78" t="s">
         <v>896</v>
@@ -14813,7 +14801,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="167" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" s="78">
         <v>9</v>
       </c>
@@ -14824,7 +14812,7 @@
         <v>8</v>
       </c>
       <c r="D167" s="78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E167" s="78" t="s">
         <v>900</v>
@@ -14853,10 +14841,10 @@
         <v>340</v>
       </c>
       <c r="C168" s="78">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D168" s="78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E168" s="78" t="s">
         <v>904</v>
@@ -14885,7 +14873,7 @@
         <v>340</v>
       </c>
       <c r="C169" s="78">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D169" s="78">
         <v>1</v>
@@ -14917,7 +14905,7 @@
         <v>340</v>
       </c>
       <c r="C170" s="78">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D170" s="78">
         <v>1</v>
@@ -14949,7 +14937,7 @@
         <v>340</v>
       </c>
       <c r="C171" s="78">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D171" s="78">
         <v>1</v>
@@ -14981,7 +14969,7 @@
         <v>340</v>
       </c>
       <c r="C172" s="78">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D172" s="78">
         <v>1</v>
@@ -15005,15 +14993,15 @@
         <v>256</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A173" s="78">
         <v>9</v>
       </c>
       <c r="B173" s="78" t="s">
-        <v>340</v>
+        <v>257</v>
       </c>
       <c r="C173" s="78">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="D173" s="78">
         <v>1</v>
@@ -15028,7 +15016,7 @@
         <v>926</v>
       </c>
       <c r="H173" s="79" t="s">
-        <v>927</v>
+        <v>1329</v>
       </c>
       <c r="I173" s="78"/>
       <c r="J173" s="78"/>
@@ -15037,7 +15025,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="174" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174" s="78">
         <v>9</v>
       </c>
@@ -15048,19 +15036,19 @@
         <v>1</v>
       </c>
       <c r="D174" s="78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E174" s="78" t="s">
+        <v>927</v>
+      </c>
+      <c r="F174" s="78" t="s">
         <v>928</v>
       </c>
-      <c r="F174" s="78" t="s">
+      <c r="G174" s="78" t="s">
         <v>929</v>
       </c>
-      <c r="G174" s="78" t="s">
+      <c r="H174" s="79" t="s">
         <v>930</v>
-      </c>
-      <c r="H174" s="79" t="s">
-        <v>1333</v>
       </c>
       <c r="I174" s="78"/>
       <c r="J174" s="78"/>
@@ -15077,10 +15065,10 @@
         <v>257</v>
       </c>
       <c r="C175" s="78">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D175" s="78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E175" s="78" t="s">
         <v>931</v>
@@ -15109,7 +15097,7 @@
         <v>257</v>
       </c>
       <c r="C176" s="78">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D176" s="78">
         <v>1</v>
@@ -15141,7 +15129,7 @@
         <v>257</v>
       </c>
       <c r="C177" s="78">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D177" s="78">
         <v>1</v>
@@ -15176,7 +15164,7 @@
         <v>5</v>
       </c>
       <c r="D178" s="78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E178" s="78" t="s">
         <v>943</v>
@@ -15205,10 +15193,10 @@
         <v>257</v>
       </c>
       <c r="C179" s="78">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D179" s="78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E179" s="78" t="s">
         <v>947</v>
@@ -15240,7 +15228,7 @@
         <v>7</v>
       </c>
       <c r="D180" s="78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E180" s="78" t="s">
         <v>951</v>
@@ -15269,10 +15257,10 @@
         <v>257</v>
       </c>
       <c r="C181" s="78">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D181" s="78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E181" s="78" t="s">
         <v>955</v>
@@ -15301,7 +15289,7 @@
         <v>257</v>
       </c>
       <c r="C182" s="78">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D182" s="78">
         <v>1</v>
@@ -15333,7 +15321,7 @@
         <v>257</v>
       </c>
       <c r="C183" s="78">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D183" s="78">
         <v>1</v>
@@ -15365,7 +15353,7 @@
         <v>257</v>
       </c>
       <c r="C184" s="78">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D184" s="78">
         <v>1</v>
@@ -15397,7 +15385,7 @@
         <v>257</v>
       </c>
       <c r="C185" s="78">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D185" s="78">
         <v>1</v>
@@ -15432,7 +15420,7 @@
         <v>13</v>
       </c>
       <c r="D186" s="78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E186" s="78" t="s">
         <v>975</v>
@@ -15461,10 +15449,10 @@
         <v>257</v>
       </c>
       <c r="C187" s="78">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D187" s="78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E187" s="78" t="s">
         <v>979</v>
@@ -15493,7 +15481,7 @@
         <v>257</v>
       </c>
       <c r="C188" s="78">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D188" s="78">
         <v>1</v>
@@ -15505,10 +15493,10 @@
         <v>984</v>
       </c>
       <c r="G188" s="78" t="s">
+        <v>984</v>
+      </c>
+      <c r="H188" s="79" t="s">
         <v>985</v>
-      </c>
-      <c r="H188" s="79" t="s">
-        <v>986</v>
       </c>
       <c r="I188" s="78"/>
       <c r="J188" s="78"/>
@@ -15528,19 +15516,19 @@
         <v>15</v>
       </c>
       <c r="D189" s="78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E189" s="78" t="s">
+        <v>986</v>
+      </c>
+      <c r="F189" s="78" t="s">
         <v>987</v>
       </c>
-      <c r="F189" s="78" t="s">
+      <c r="G189" s="78" t="s">
+        <v>987</v>
+      </c>
+      <c r="H189" s="79" t="s">
         <v>988</v>
-      </c>
-      <c r="G189" s="78" t="s">
-        <v>988</v>
-      </c>
-      <c r="H189" s="79" t="s">
-        <v>989</v>
       </c>
       <c r="I189" s="78"/>
       <c r="J189" s="78"/>
@@ -15551,22 +15539,22 @@
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A190" s="78">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B190" s="78" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="C190" s="78">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D190" s="78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E190" s="78" t="s">
+        <v>989</v>
+      </c>
+      <c r="F190" s="78" t="s">
         <v>990</v>
-      </c>
-      <c r="F190" s="78" t="s">
-        <v>991</v>
       </c>
       <c r="G190" s="78" t="s">
         <v>991</v>
@@ -15592,7 +15580,7 @@
         <v>1</v>
       </c>
       <c r="D191" s="78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E191" s="78" t="s">
         <v>993</v>
@@ -15601,10 +15589,10 @@
         <v>994</v>
       </c>
       <c r="G191" s="78" t="s">
+        <v>994</v>
+      </c>
+      <c r="H191" s="79" t="s">
         <v>995</v>
-      </c>
-      <c r="H191" s="79" t="s">
-        <v>996</v>
       </c>
       <c r="I191" s="78"/>
       <c r="J191" s="78"/>
@@ -15621,22 +15609,22 @@
         <v>271</v>
       </c>
       <c r="C192" s="78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D192" s="78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E192" s="78" t="s">
+        <v>996</v>
+      </c>
+      <c r="F192" s="78" t="s">
         <v>997</v>
       </c>
-      <c r="F192" s="78" t="s">
+      <c r="G192" s="78" t="s">
+        <v>997</v>
+      </c>
+      <c r="H192" s="79" t="s">
         <v>998</v>
-      </c>
-      <c r="G192" s="78" t="s">
-        <v>998</v>
-      </c>
-      <c r="H192" s="79" t="s">
-        <v>999</v>
       </c>
       <c r="I192" s="78"/>
       <c r="J192" s="78"/>
@@ -15656,19 +15644,19 @@
         <v>2</v>
       </c>
       <c r="D193" s="78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E193" s="78" t="s">
+        <v>999</v>
+      </c>
+      <c r="F193" s="78" t="s">
         <v>1000</v>
       </c>
-      <c r="F193" s="78" t="s">
+      <c r="G193" s="78" t="s">
+        <v>1000</v>
+      </c>
+      <c r="H193" s="79" t="s">
         <v>1001</v>
-      </c>
-      <c r="G193" s="78" t="s">
-        <v>1001</v>
-      </c>
-      <c r="H193" s="79" t="s">
-        <v>1002</v>
       </c>
       <c r="I193" s="78"/>
       <c r="J193" s="78"/>
@@ -15682,25 +15670,25 @@
         <v>10</v>
       </c>
       <c r="B194" s="78" t="s">
-        <v>271</v>
+        <v>250</v>
       </c>
       <c r="C194" s="78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D194" s="78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E194" s="78" t="s">
+        <v>1002</v>
+      </c>
+      <c r="F194" s="78" t="s">
         <v>1003</v>
       </c>
-      <c r="F194" s="78" t="s">
+      <c r="G194" s="78" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H194" s="79" t="s">
         <v>1004</v>
-      </c>
-      <c r="G194" s="78" t="s">
-        <v>1004</v>
-      </c>
-      <c r="H194" s="79" t="s">
-        <v>1005</v>
       </c>
       <c r="I194" s="78"/>
       <c r="J194" s="78"/>
@@ -15720,19 +15708,19 @@
         <v>1</v>
       </c>
       <c r="D195" s="78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E195" s="78" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F195" s="78" t="s">
         <v>1006</v>
       </c>
-      <c r="F195" s="78" t="s">
-        <v>1007</v>
-      </c>
       <c r="G195" s="78" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="H195" s="79" t="s">
-        <v>1008</v>
+        <v>1330</v>
       </c>
       <c r="I195" s="78"/>
       <c r="J195" s="78"/>
@@ -15743,28 +15731,28 @@
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A196" s="78">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B196" s="78" t="s">
-        <v>250</v>
+        <v>271</v>
       </c>
       <c r="C196" s="78">
         <v>1</v>
       </c>
       <c r="D196" s="78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E196" s="78" t="s">
+        <v>1007</v>
+      </c>
+      <c r="F196" s="78" t="s">
+        <v>1008</v>
+      </c>
+      <c r="G196" s="78" t="s">
         <v>1009</v>
       </c>
-      <c r="F196" s="78" t="s">
+      <c r="H196" s="79" t="s">
         <v>1010</v>
-      </c>
-      <c r="G196" s="78" t="s">
-        <v>1010</v>
-      </c>
-      <c r="H196" s="79" t="s">
-        <v>1334</v>
       </c>
       <c r="I196" s="78"/>
       <c r="J196" s="78"/>
@@ -15784,7 +15772,7 @@
         <v>1</v>
       </c>
       <c r="D197" s="78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E197" s="78" t="s">
         <v>1011</v>
@@ -15813,10 +15801,10 @@
         <v>271</v>
       </c>
       <c r="C198" s="78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D198" s="78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E198" s="78" t="s">
         <v>1015</v>
@@ -15837,40 +15825,8 @@
         <v>256</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A199" s="78">
-        <v>11</v>
-      </c>
-      <c r="B199" s="78" t="s">
-        <v>271</v>
-      </c>
-      <c r="C199" s="78">
-        <v>2</v>
-      </c>
-      <c r="D199" s="78">
-        <v>1</v>
-      </c>
-      <c r="E199" s="78" t="s">
-        <v>1019</v>
-      </c>
-      <c r="F199" s="78" t="s">
-        <v>1020</v>
-      </c>
-      <c r="G199" s="78" t="s">
-        <v>1021</v>
-      </c>
-      <c r="H199" s="79" t="s">
-        <v>1022</v>
-      </c>
-      <c r="I199" s="78"/>
-      <c r="J199" s="78"/>
-      <c r="K199" s="78"/>
-      <c r="L199" s="78" t="s">
-        <v>256</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="E200:E1048576 E14:E77 E1">
+  <conditionalFormatting sqref="E199:E1048576 E14:E77 E1">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15905,1164 +15861,1164 @@
   <sheetData>
     <row r="2" spans="1:52" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="45" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="B2" s="61"/>
       <c r="C2" s="49"/>
       <c r="D2" s="49"/>
       <c r="E2" s="62"/>
       <c r="F2" s="45" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="G2" s="61"/>
       <c r="H2" s="62"/>
       <c r="I2" s="45" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
       <c r="J2" s="61"/>
       <c r="K2" s="49"/>
       <c r="L2" s="49"/>
       <c r="M2" s="62"/>
       <c r="N2" s="50" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="O2" s="49"/>
       <c r="P2" s="49"/>
       <c r="Q2" s="49"/>
       <c r="R2" s="63" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
       <c r="S2" s="49"/>
       <c r="T2" s="48" t="s">
+        <v>1024</v>
+      </c>
+      <c r="Z2" s="48" t="s">
+        <v>1025</v>
+      </c>
+      <c r="AF2" s="48" t="s">
+        <v>1026</v>
+      </c>
+      <c r="AK2" s="48" t="s">
+        <v>1027</v>
+      </c>
+      <c r="AN2" s="48" t="s">
         <v>1028</v>
       </c>
-      <c r="Z2" s="48" t="s">
+      <c r="AS2" s="48" t="s">
         <v>1029</v>
       </c>
-      <c r="AF2" s="48" t="s">
+      <c r="AW2" s="48" t="s">
         <v>1030</v>
       </c>
-      <c r="AK2" s="48" t="s">
+      <c r="AY2" s="63" t="s">
         <v>1031</v>
-      </c>
-      <c r="AN2" s="48" t="s">
-        <v>1032</v>
-      </c>
-      <c r="AS2" s="48" t="s">
-        <v>1033</v>
-      </c>
-      <c r="AW2" s="48" t="s">
-        <v>1034</v>
-      </c>
-      <c r="AY2" s="63" t="s">
-        <v>1035</v>
       </c>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.25">
       <c r="B3" s="44" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="G3" s="44" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="J3" s="44" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="O3" s="39" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="S3" s="46" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
       <c r="U3" s="57" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="AA3" s="57" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="AG3" s="58" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="AL3" s="57" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="AO3" s="57" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="AT3" s="57" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="AX3" s="57" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="AZ3" s="55" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="4" spans="1:52" x14ac:dyDescent="0.25">
       <c r="B4" s="37" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="F4" s="41"/>
       <c r="G4" s="40" t="s">
+        <v>1036</v>
+      </c>
+      <c r="J4" s="70" t="s">
+        <v>1037</v>
+      </c>
+      <c r="O4" s="46" t="s">
+        <v>1038</v>
+      </c>
+      <c r="S4" s="37" t="s">
+        <v>1034</v>
+      </c>
+      <c r="U4" s="53" t="s">
+        <v>1039</v>
+      </c>
+      <c r="AA4" s="53" t="s">
         <v>1040</v>
       </c>
-      <c r="J4" s="70" t="s">
+      <c r="AG4" s="55" t="s">
         <v>1041</v>
       </c>
-      <c r="O4" s="46" t="s">
+      <c r="AL4" s="53" t="s">
         <v>1042</v>
       </c>
-      <c r="S4" s="37" t="s">
-        <v>1038</v>
-      </c>
-      <c r="U4" s="53" t="s">
+      <c r="AO4" s="53" t="s">
         <v>1043</v>
       </c>
-      <c r="AA4" s="53" t="s">
+      <c r="AT4" s="53" t="s">
         <v>1044</v>
       </c>
-      <c r="AG4" s="55" t="s">
+      <c r="AX4" s="53" t="s">
         <v>1045</v>
-      </c>
-      <c r="AL4" s="53" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AO4" s="53" t="s">
-        <v>1047</v>
-      </c>
-      <c r="AT4" s="53" t="s">
-        <v>1048</v>
-      </c>
-      <c r="AX4" s="53" t="s">
-        <v>1049</v>
       </c>
     </row>
     <row r="5" spans="1:52" x14ac:dyDescent="0.25">
       <c r="B5" s="37" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
       <c r="F5" s="41"/>
       <c r="G5" s="41" t="s">
+        <v>1047</v>
+      </c>
+      <c r="J5" s="70" t="s">
+        <v>1048</v>
+      </c>
+      <c r="O5" s="37" t="s">
+        <v>1049</v>
+      </c>
+      <c r="S5" s="37" t="s">
+        <v>1050</v>
+      </c>
+      <c r="U5" s="53" t="s">
         <v>1051</v>
       </c>
-      <c r="J5" s="70" t="s">
+      <c r="AA5" s="53" t="s">
         <v>1052</v>
       </c>
-      <c r="O5" s="37" t="s">
+      <c r="AH5" s="57" t="s">
         <v>1053</v>
       </c>
-      <c r="S5" s="37" t="s">
+      <c r="AL5" s="53" t="s">
         <v>1054</v>
       </c>
-      <c r="U5" s="53" t="s">
+      <c r="AO5" s="53" t="s">
         <v>1055</v>
       </c>
-      <c r="AA5" s="53" t="s">
+      <c r="AT5" s="53" t="s">
         <v>1056</v>
       </c>
-      <c r="AH5" s="57" t="s">
+      <c r="AX5" s="54" t="s">
         <v>1057</v>
-      </c>
-      <c r="AL5" s="53" t="s">
-        <v>1058</v>
-      </c>
-      <c r="AO5" s="53" t="s">
-        <v>1059</v>
-      </c>
-      <c r="AT5" s="53" t="s">
-        <v>1060</v>
-      </c>
-      <c r="AX5" s="54" t="s">
-        <v>1061</v>
       </c>
     </row>
     <row r="6" spans="1:52" x14ac:dyDescent="0.25">
       <c r="B6" s="37" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="F6" s="41"/>
       <c r="G6" s="38" t="s">
+        <v>1059</v>
+      </c>
+      <c r="J6" s="70" t="s">
+        <v>1060</v>
+      </c>
+      <c r="O6" s="37" t="s">
+        <v>1061</v>
+      </c>
+      <c r="S6" s="38" t="s">
+        <v>1062</v>
+      </c>
+      <c r="U6" s="53" t="s">
         <v>1063</v>
       </c>
-      <c r="J6" s="70" t="s">
+      <c r="AA6" s="53" t="s">
         <v>1064</v>
       </c>
-      <c r="O6" s="37" t="s">
+      <c r="AH6" s="53" t="s">
         <v>1065</v>
       </c>
-      <c r="S6" s="38" t="s">
+      <c r="AL6" s="53" t="s">
         <v>1066</v>
       </c>
-      <c r="U6" s="53" t="s">
+      <c r="AO6" s="53" t="s">
         <v>1067</v>
       </c>
-      <c r="AA6" s="53" t="s">
+      <c r="AT6" s="54" t="s">
         <v>1068</v>
-      </c>
-      <c r="AH6" s="53" t="s">
-        <v>1069</v>
-      </c>
-      <c r="AL6" s="53" t="s">
-        <v>1070</v>
-      </c>
-      <c r="AO6" s="53" t="s">
-        <v>1071</v>
-      </c>
-      <c r="AT6" s="54" t="s">
-        <v>1072</v>
       </c>
     </row>
     <row r="7" spans="1:52" x14ac:dyDescent="0.25">
       <c r="B7" s="37" t="s">
+        <v>1069</v>
+      </c>
+      <c r="H7" s="39" t="s">
+        <v>1070</v>
+      </c>
+      <c r="J7" s="70" t="s">
+        <v>1071</v>
+      </c>
+      <c r="O7" s="37" t="s">
+        <v>1072</v>
+      </c>
+      <c r="U7" s="53" t="s">
         <v>1073</v>
       </c>
-      <c r="H7" s="39" t="s">
+      <c r="AA7" s="53" t="s">
         <v>1074</v>
       </c>
-      <c r="J7" s="70" t="s">
+      <c r="AH7" s="53" t="s">
         <v>1075</v>
       </c>
-      <c r="O7" s="37" t="s">
+      <c r="AL7" s="53" t="s">
         <v>1076</v>
       </c>
-      <c r="U7" s="53" t="s">
+      <c r="AO7" s="53" t="s">
         <v>1077</v>
       </c>
-      <c r="AA7" s="53" t="s">
-        <v>1078</v>
-      </c>
-      <c r="AH7" s="53" t="s">
-        <v>1079</v>
-      </c>
-      <c r="AL7" s="53" t="s">
-        <v>1080</v>
-      </c>
-      <c r="AO7" s="53" t="s">
-        <v>1081</v>
-      </c>
       <c r="AU7" s="57" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="8" spans="1:52" x14ac:dyDescent="0.25">
       <c r="B8" s="37" t="s">
+        <v>1078</v>
+      </c>
+      <c r="H8" s="37" t="s">
+        <v>1079</v>
+      </c>
+      <c r="J8" s="70" t="s">
+        <v>1080</v>
+      </c>
+      <c r="O8" s="37" t="s">
+        <v>1081</v>
+      </c>
+      <c r="U8" s="54" t="s">
         <v>1082</v>
       </c>
-      <c r="H8" s="37" t="s">
+      <c r="AA8" s="53" t="s">
         <v>1083</v>
       </c>
-      <c r="J8" s="70" t="s">
+      <c r="AH8" s="53" t="s">
         <v>1084</v>
       </c>
-      <c r="O8" s="37" t="s">
+      <c r="AL8" s="53" t="s">
         <v>1085</v>
       </c>
-      <c r="U8" s="54" t="s">
+      <c r="AO8" s="53" t="s">
         <v>1086</v>
       </c>
-      <c r="AA8" s="53" t="s">
+      <c r="AU8" s="53" t="s">
         <v>1087</v>
-      </c>
-      <c r="AH8" s="53" t="s">
-        <v>1088</v>
-      </c>
-      <c r="AL8" s="53" t="s">
-        <v>1089</v>
-      </c>
-      <c r="AO8" s="53" t="s">
-        <v>1090</v>
-      </c>
-      <c r="AU8" s="53" t="s">
-        <v>1091</v>
       </c>
     </row>
     <row r="9" spans="1:52" x14ac:dyDescent="0.25">
       <c r="B9" s="37" t="s">
+        <v>1088</v>
+      </c>
+      <c r="H9" s="37" t="s">
+        <v>1089</v>
+      </c>
+      <c r="J9" s="70" t="s">
+        <v>1090</v>
+      </c>
+      <c r="O9" s="37" t="s">
+        <v>1091</v>
+      </c>
+      <c r="V9" s="56" t="s">
+        <v>1070</v>
+      </c>
+      <c r="AA9" s="54" t="s">
         <v>1092</v>
       </c>
-      <c r="H9" s="37" t="s">
+      <c r="AH9" s="54" t="s">
         <v>1093</v>
       </c>
-      <c r="J9" s="70" t="s">
+      <c r="AL9" s="53" t="s">
         <v>1094</v>
       </c>
-      <c r="O9" s="37" t="s">
+      <c r="AO9" s="53" t="s">
         <v>1095</v>
       </c>
-      <c r="V9" s="56" t="s">
-        <v>1074</v>
-      </c>
-      <c r="AA9" s="54" t="s">
+      <c r="AU9" s="53" t="s">
         <v>1096</v>
-      </c>
-      <c r="AH9" s="54" t="s">
-        <v>1097</v>
-      </c>
-      <c r="AL9" s="53" t="s">
-        <v>1098</v>
-      </c>
-      <c r="AO9" s="53" t="s">
-        <v>1099</v>
-      </c>
-      <c r="AU9" s="53" t="s">
-        <v>1100</v>
       </c>
     </row>
     <row r="10" spans="1:52" x14ac:dyDescent="0.25">
       <c r="B10" s="37" t="s">
+        <v>1097</v>
+      </c>
+      <c r="H10" s="37" t="s">
+        <v>1098</v>
+      </c>
+      <c r="J10" s="70" t="s">
+        <v>1099</v>
+      </c>
+      <c r="O10" s="37" t="s">
+        <v>1100</v>
+      </c>
+      <c r="V10" s="55" t="s">
         <v>1101</v>
       </c>
-      <c r="H10" s="37" t="s">
+      <c r="AB10" s="57" t="s">
+        <v>1070</v>
+      </c>
+      <c r="AI10" s="57" t="s">
         <v>1102</v>
       </c>
-      <c r="J10" s="70" t="s">
+      <c r="AL10" s="53" t="s">
         <v>1103</v>
       </c>
-      <c r="O10" s="37" t="s">
+      <c r="AO10" s="53" t="s">
         <v>1104</v>
       </c>
-      <c r="V10" s="55" t="s">
+      <c r="AU10" s="53" t="s">
         <v>1105</v>
-      </c>
-      <c r="AB10" s="57" t="s">
-        <v>1074</v>
-      </c>
-      <c r="AI10" s="57" t="s">
-        <v>1106</v>
-      </c>
-      <c r="AL10" s="53" t="s">
-        <v>1107</v>
-      </c>
-      <c r="AO10" s="53" t="s">
-        <v>1108</v>
-      </c>
-      <c r="AU10" s="53" t="s">
-        <v>1109</v>
       </c>
     </row>
     <row r="11" spans="1:52" x14ac:dyDescent="0.25">
       <c r="B11" s="37" t="s">
+        <v>1106</v>
+      </c>
+      <c r="H11" s="37" t="s">
+        <v>1107</v>
+      </c>
+      <c r="J11" s="42" t="s">
+        <v>1108</v>
+      </c>
+      <c r="O11" s="38" t="s">
+        <v>1109</v>
+      </c>
+      <c r="W11" s="52" t="s">
         <v>1110</v>
       </c>
-      <c r="H11" s="37" t="s">
+      <c r="AB11" s="53" t="s">
         <v>1111</v>
       </c>
-      <c r="J11" s="42" t="s">
+      <c r="AI11" s="53" t="s">
         <v>1112</v>
       </c>
-      <c r="O11" s="38" t="s">
+      <c r="AL11" s="53" t="s">
         <v>1113</v>
       </c>
-      <c r="W11" s="52" t="s">
+      <c r="AO11" s="53" t="s">
         <v>1114</v>
       </c>
-      <c r="AB11" s="53" t="s">
+      <c r="AU11" s="54" t="s">
         <v>1115</v>
-      </c>
-      <c r="AI11" s="53" t="s">
-        <v>1116</v>
-      </c>
-      <c r="AL11" s="53" t="s">
-        <v>1117</v>
-      </c>
-      <c r="AO11" s="53" t="s">
-        <v>1118</v>
-      </c>
-      <c r="AU11" s="54" t="s">
-        <v>1119</v>
       </c>
     </row>
     <row r="12" spans="1:52" x14ac:dyDescent="0.25">
       <c r="B12" s="37" t="s">
+        <v>1116</v>
+      </c>
+      <c r="H12" s="37" t="s">
+        <v>1117</v>
+      </c>
+      <c r="J12" s="70" t="s">
+        <v>1118</v>
+      </c>
+      <c r="P12" s="39" t="s">
+        <v>1070</v>
+      </c>
+      <c r="W12" s="53" t="s">
+        <v>1119</v>
+      </c>
+      <c r="AB12" s="53" t="s">
         <v>1120</v>
       </c>
-      <c r="H12" s="37" t="s">
+      <c r="AI12" s="53" t="s">
         <v>1121</v>
       </c>
-      <c r="J12" s="70" t="s">
+      <c r="AL12" s="53" t="s">
         <v>1122</v>
       </c>
-      <c r="P12" s="39" t="s">
-        <v>1074</v>
-      </c>
-      <c r="W12" s="53" t="s">
+      <c r="AO12" s="53" t="s">
         <v>1123</v>
       </c>
-      <c r="AB12" s="53" t="s">
-        <v>1124</v>
-      </c>
-      <c r="AI12" s="53" t="s">
-        <v>1125</v>
-      </c>
-      <c r="AL12" s="53" t="s">
-        <v>1126</v>
-      </c>
-      <c r="AO12" s="53" t="s">
-        <v>1127</v>
-      </c>
       <c r="AV12" s="60" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="13" spans="1:52" x14ac:dyDescent="0.25">
       <c r="B13" s="38" t="s">
+        <v>1124</v>
+      </c>
+      <c r="H13" s="37" t="s">
+        <v>1125</v>
+      </c>
+      <c r="J13" s="70" t="s">
+        <v>1126</v>
+      </c>
+      <c r="P13" s="37" t="s">
+        <v>1127</v>
+      </c>
+      <c r="W13" s="53" t="s">
         <v>1128</v>
       </c>
-      <c r="H13" s="37" t="s">
+      <c r="AB13" s="54" t="s">
         <v>1129</v>
       </c>
-      <c r="J13" s="70" t="s">
+      <c r="AI13" s="53" t="s">
         <v>1130</v>
       </c>
-      <c r="P13" s="37" t="s">
+      <c r="AL13" s="53" t="s">
         <v>1131</v>
       </c>
-      <c r="W13" s="53" t="s">
+      <c r="AO13" s="53" t="s">
         <v>1132</v>
       </c>
-      <c r="AB13" s="54" t="s">
+      <c r="AV13" s="59" t="s">
         <v>1133</v>
-      </c>
-      <c r="AI13" s="53" t="s">
-        <v>1134</v>
-      </c>
-      <c r="AL13" s="53" t="s">
-        <v>1135</v>
-      </c>
-      <c r="AO13" s="53" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AV13" s="59" t="s">
-        <v>1137</v>
       </c>
     </row>
     <row r="14" spans="1:52" x14ac:dyDescent="0.25">
       <c r="C14" s="39" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
       <c r="H14" s="42" t="s">
+        <v>1134</v>
+      </c>
+      <c r="J14" s="42" t="s">
+        <v>1135</v>
+      </c>
+      <c r="P14" s="37" t="s">
+        <v>1136</v>
+      </c>
+      <c r="W14" s="53" t="s">
+        <v>1137</v>
+      </c>
+      <c r="AC14" s="57" t="s">
+        <v>1110</v>
+      </c>
+      <c r="AI14" s="53" t="s">
         <v>1138</v>
       </c>
-      <c r="J14" s="42" t="s">
+      <c r="AL14" s="53" t="s">
         <v>1139</v>
       </c>
-      <c r="P14" s="37" t="s">
+      <c r="AO14" s="53" t="s">
         <v>1140</v>
       </c>
-      <c r="W14" s="53" t="s">
+      <c r="AV14" s="54" t="s">
         <v>1141</v>
-      </c>
-      <c r="AC14" s="57" t="s">
-        <v>1114</v>
-      </c>
-      <c r="AI14" s="53" t="s">
-        <v>1142</v>
-      </c>
-      <c r="AL14" s="53" t="s">
-        <v>1143</v>
-      </c>
-      <c r="AO14" s="53" t="s">
-        <v>1144</v>
-      </c>
-      <c r="AV14" s="54" t="s">
-        <v>1145</v>
       </c>
     </row>
     <row r="15" spans="1:52" x14ac:dyDescent="0.25">
       <c r="C15" s="37" t="s">
+        <v>1142</v>
+      </c>
+      <c r="H15" s="42" t="s">
+        <v>1143</v>
+      </c>
+      <c r="J15" s="70" t="s">
+        <v>1144</v>
+      </c>
+      <c r="P15" s="37" t="s">
+        <v>1145</v>
+      </c>
+      <c r="W15" s="54" t="s">
         <v>1146</v>
       </c>
-      <c r="H15" s="42" t="s">
+      <c r="AC15" s="53" t="s">
         <v>1147</v>
       </c>
-      <c r="J15" s="70" t="s">
+      <c r="AI15" s="53" t="s">
         <v>1148</v>
       </c>
-      <c r="P15" s="37" t="s">
+      <c r="AL15" s="53" t="s">
         <v>1149</v>
       </c>
-      <c r="W15" s="54" t="s">
+      <c r="AO15" s="53" t="s">
         <v>1150</v>
       </c>
-      <c r="AC15" s="53" t="s">
+      <c r="AV15" t="s">
         <v>1151</v>
-      </c>
-      <c r="AI15" s="53" t="s">
-        <v>1152</v>
-      </c>
-      <c r="AL15" s="53" t="s">
-        <v>1153</v>
-      </c>
-      <c r="AO15" s="53" t="s">
-        <v>1154</v>
-      </c>
-      <c r="AV15" t="s">
-        <v>1155</v>
       </c>
     </row>
     <row r="16" spans="1:52" x14ac:dyDescent="0.25">
       <c r="C16" s="42" t="s">
+        <v>1152</v>
+      </c>
+      <c r="J16" s="70" t="s">
+        <v>1153</v>
+      </c>
+      <c r="P16" s="37" t="s">
+        <v>1154</v>
+      </c>
+      <c r="X16" s="57" t="s">
+        <v>1155</v>
+      </c>
+      <c r="AC16" s="53" t="s">
         <v>1156</v>
       </c>
-      <c r="J16" s="70" t="s">
+      <c r="AI16" s="53" t="s">
         <v>1157</v>
       </c>
-      <c r="P16" s="37" t="s">
+      <c r="AL16" s="54" t="s">
         <v>1158</v>
       </c>
-      <c r="X16" s="57" t="s">
+      <c r="AO16" s="53" t="s">
         <v>1159</v>
-      </c>
-      <c r="AC16" s="53" t="s">
-        <v>1160</v>
-      </c>
-      <c r="AI16" s="53" t="s">
-        <v>1161</v>
-      </c>
-      <c r="AL16" s="54" t="s">
-        <v>1162</v>
-      </c>
-      <c r="AO16" s="53" t="s">
-        <v>1163</v>
       </c>
     </row>
     <row r="17" spans="3:43" x14ac:dyDescent="0.25">
       <c r="C17" s="37" t="s">
+        <v>1160</v>
+      </c>
+      <c r="J17" s="70" t="s">
+        <v>1161</v>
+      </c>
+      <c r="P17" s="37" t="s">
+        <v>1162</v>
+      </c>
+      <c r="X17" s="53" t="s">
+        <v>1163</v>
+      </c>
+      <c r="AC17" s="53" t="s">
         <v>1164</v>
       </c>
-      <c r="J17" s="70" t="s">
+      <c r="AI17" s="53" t="s">
         <v>1165</v>
       </c>
-      <c r="P17" s="37" t="s">
+      <c r="AM17" s="57" t="s">
+        <v>1070</v>
+      </c>
+      <c r="AO17" s="53" t="s">
         <v>1166</v>
-      </c>
-      <c r="X17" s="53" t="s">
-        <v>1167</v>
-      </c>
-      <c r="AC17" s="53" t="s">
-        <v>1168</v>
-      </c>
-      <c r="AI17" s="53" t="s">
-        <v>1169</v>
-      </c>
-      <c r="AM17" s="57" t="s">
-        <v>1074</v>
-      </c>
-      <c r="AO17" s="53" t="s">
-        <v>1170</v>
       </c>
     </row>
     <row r="18" spans="3:43" x14ac:dyDescent="0.25">
       <c r="C18" s="38" t="s">
+        <v>1167</v>
+      </c>
+      <c r="J18" s="70" t="s">
+        <v>1168</v>
+      </c>
+      <c r="P18" s="37" t="s">
+        <v>1169</v>
+      </c>
+      <c r="X18" s="53" t="s">
+        <v>1170</v>
+      </c>
+      <c r="AC18" s="54" t="s">
         <v>1171</v>
       </c>
-      <c r="J18" s="70" t="s">
+      <c r="AI18" s="53" t="s">
         <v>1172</v>
       </c>
-      <c r="P18" s="37" t="s">
+      <c r="AM18" s="53" t="s">
         <v>1173</v>
       </c>
-      <c r="X18" s="53" t="s">
+      <c r="AO18" s="53" t="s">
         <v>1174</v>
-      </c>
-      <c r="AC18" s="54" t="s">
-        <v>1175</v>
-      </c>
-      <c r="AI18" s="53" t="s">
-        <v>1176</v>
-      </c>
-      <c r="AM18" s="53" t="s">
-        <v>1177</v>
-      </c>
-      <c r="AO18" s="53" t="s">
-        <v>1178</v>
       </c>
     </row>
     <row r="19" spans="3:43" x14ac:dyDescent="0.25">
       <c r="D19" s="39" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
       <c r="K19" s="39" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="P19" s="37" t="s">
+        <v>1175</v>
+      </c>
+      <c r="X19" s="53" t="s">
+        <v>1176</v>
+      </c>
+      <c r="AD19" s="57" t="s">
+        <v>1155</v>
+      </c>
+      <c r="AI19" s="53" t="s">
+        <v>1177</v>
+      </c>
+      <c r="AM19" s="53" t="s">
+        <v>1178</v>
+      </c>
+      <c r="AO19" s="53" t="s">
         <v>1179</v>
-      </c>
-      <c r="X19" s="53" t="s">
-        <v>1180</v>
-      </c>
-      <c r="AD19" s="57" t="s">
-        <v>1159</v>
-      </c>
-      <c r="AI19" s="53" t="s">
-        <v>1181</v>
-      </c>
-      <c r="AM19" s="53" t="s">
-        <v>1182</v>
-      </c>
-      <c r="AO19" s="53" t="s">
-        <v>1183</v>
       </c>
     </row>
     <row r="20" spans="3:43" x14ac:dyDescent="0.25">
       <c r="D20" s="37" t="s">
+        <v>1180</v>
+      </c>
+      <c r="K20" s="68" t="s">
+        <v>1181</v>
+      </c>
+      <c r="P20" s="37" t="s">
+        <v>1182</v>
+      </c>
+      <c r="X20" s="53" t="s">
+        <v>1183</v>
+      </c>
+      <c r="AD20" s="53" t="s">
         <v>1184</v>
       </c>
-      <c r="K20" s="68" t="s">
+      <c r="AI20" s="53" t="s">
         <v>1185</v>
       </c>
-      <c r="P20" s="37" t="s">
+      <c r="AM20" s="53" t="s">
         <v>1186</v>
       </c>
-      <c r="X20" s="53" t="s">
+      <c r="AO20" s="53" t="s">
         <v>1187</v>
-      </c>
-      <c r="AD20" s="53" t="s">
-        <v>1188</v>
-      </c>
-      <c r="AI20" s="53" t="s">
-        <v>1189</v>
-      </c>
-      <c r="AM20" s="53" t="s">
-        <v>1190</v>
-      </c>
-      <c r="AO20" s="53" t="s">
-        <v>1191</v>
       </c>
     </row>
     <row r="21" spans="3:43" x14ac:dyDescent="0.25">
       <c r="D21" s="37" t="s">
+        <v>1188</v>
+      </c>
+      <c r="K21" s="37" t="s">
+        <v>1189</v>
+      </c>
+      <c r="P21" s="37" t="s">
+        <v>1190</v>
+      </c>
+      <c r="X21" s="53" t="s">
+        <v>1191</v>
+      </c>
+      <c r="AD21" s="53" t="s">
         <v>1192</v>
       </c>
-      <c r="K21" s="37" t="s">
+      <c r="AI21" s="53" t="s">
         <v>1193</v>
       </c>
-      <c r="P21" s="37" t="s">
+      <c r="AM21" s="53" t="s">
         <v>1194</v>
       </c>
-      <c r="X21" s="53" t="s">
+      <c r="AO21" s="53" t="s">
         <v>1195</v>
-      </c>
-      <c r="AD21" s="53" t="s">
-        <v>1196</v>
-      </c>
-      <c r="AI21" s="53" t="s">
-        <v>1197</v>
-      </c>
-      <c r="AM21" s="53" t="s">
-        <v>1198</v>
-      </c>
-      <c r="AO21" s="53" t="s">
-        <v>1199</v>
       </c>
     </row>
     <row r="22" spans="3:43" x14ac:dyDescent="0.25">
       <c r="D22" s="37" t="s">
+        <v>1196</v>
+      </c>
+      <c r="K22" s="38" t="s">
+        <v>1197</v>
+      </c>
+      <c r="P22" s="37" t="s">
+        <v>1198</v>
+      </c>
+      <c r="X22" s="53" t="s">
+        <v>1199</v>
+      </c>
+      <c r="AD22" s="53" t="s">
         <v>1200</v>
       </c>
-      <c r="K22" s="38" t="s">
+      <c r="AI22" s="53" t="s">
         <v>1201</v>
       </c>
-      <c r="P22" s="37" t="s">
+      <c r="AM22" s="53" t="s">
         <v>1202</v>
       </c>
-      <c r="X22" s="53" t="s">
+      <c r="AO22" s="54" t="s">
         <v>1203</v>
-      </c>
-      <c r="AD22" s="53" t="s">
-        <v>1204</v>
-      </c>
-      <c r="AI22" s="53" t="s">
-        <v>1205</v>
-      </c>
-      <c r="AM22" s="53" t="s">
-        <v>1206</v>
-      </c>
-      <c r="AO22" s="54" t="s">
-        <v>1207</v>
       </c>
     </row>
     <row r="23" spans="3:43" x14ac:dyDescent="0.25">
       <c r="D23" s="37" t="s">
+        <v>1204</v>
+      </c>
+      <c r="L23" s="39" t="s">
+        <v>1110</v>
+      </c>
+      <c r="P23" s="37" t="s">
+        <v>1205</v>
+      </c>
+      <c r="X23" s="53" t="s">
+        <v>1206</v>
+      </c>
+      <c r="AD23" s="53" t="s">
+        <v>1207</v>
+      </c>
+      <c r="AI23" s="53" t="s">
         <v>1208</v>
       </c>
-      <c r="L23" s="39" t="s">
-        <v>1114</v>
-      </c>
-      <c r="P23" s="37" t="s">
+      <c r="AM23" s="53" t="s">
         <v>1209</v>
       </c>
-      <c r="X23" s="53" t="s">
-        <v>1210</v>
-      </c>
-      <c r="AD23" s="53" t="s">
-        <v>1211</v>
-      </c>
-      <c r="AI23" s="53" t="s">
-        <v>1212</v>
-      </c>
-      <c r="AM23" s="53" t="s">
-        <v>1213</v>
-      </c>
       <c r="AP23" s="57" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="24" spans="3:43" x14ac:dyDescent="0.25">
       <c r="D24" s="38" t="s">
+        <v>1210</v>
+      </c>
+      <c r="L24" s="68" t="s">
+        <v>1211</v>
+      </c>
+      <c r="P24" s="37" t="s">
+        <v>1212</v>
+      </c>
+      <c r="X24" s="53" t="s">
+        <v>1213</v>
+      </c>
+      <c r="AD24" s="53" t="s">
         <v>1214</v>
       </c>
-      <c r="L24" s="68" t="s">
+      <c r="AI24" s="53" t="s">
         <v>1215</v>
       </c>
-      <c r="P24" s="37" t="s">
+      <c r="AM24" s="53" t="s">
         <v>1216</v>
       </c>
-      <c r="X24" s="53" t="s">
+      <c r="AP24" s="53" t="s">
         <v>1217</v>
-      </c>
-      <c r="AD24" s="53" t="s">
-        <v>1218</v>
-      </c>
-      <c r="AI24" s="53" t="s">
-        <v>1219</v>
-      </c>
-      <c r="AM24" s="53" t="s">
-        <v>1220</v>
-      </c>
-      <c r="AP24" s="53" t="s">
-        <v>1221</v>
       </c>
     </row>
     <row r="25" spans="3:43" x14ac:dyDescent="0.25">
       <c r="E25" s="39" t="s">
-        <v>1159</v>
+        <v>1155</v>
       </c>
       <c r="L25" s="68" t="s">
+        <v>1218</v>
+      </c>
+      <c r="P25" s="37" t="s">
+        <v>1219</v>
+      </c>
+      <c r="X25" s="53" t="s">
+        <v>1220</v>
+      </c>
+      <c r="AD25" s="53" t="s">
+        <v>1221</v>
+      </c>
+      <c r="AI25" s="54" t="s">
         <v>1222</v>
       </c>
-      <c r="P25" s="37" t="s">
+      <c r="AM25" s="53" t="s">
         <v>1223</v>
       </c>
-      <c r="X25" s="53" t="s">
+      <c r="AP25" s="53" t="s">
         <v>1224</v>
-      </c>
-      <c r="AD25" s="53" t="s">
-        <v>1225</v>
-      </c>
-      <c r="AI25" s="54" t="s">
-        <v>1226</v>
-      </c>
-      <c r="AM25" s="53" t="s">
-        <v>1227</v>
-      </c>
-      <c r="AP25" s="53" t="s">
-        <v>1228</v>
       </c>
     </row>
     <row r="26" spans="3:43" x14ac:dyDescent="0.25">
       <c r="E26" s="43" t="s">
+        <v>1225</v>
+      </c>
+      <c r="L26" s="37" t="s">
+        <v>1226</v>
+      </c>
+      <c r="P26" s="37" t="s">
+        <v>1227</v>
+      </c>
+      <c r="X26" s="53" t="s">
+        <v>1228</v>
+      </c>
+      <c r="AD26" s="53" t="s">
         <v>1229</v>
       </c>
-      <c r="L26" s="37" t="s">
+      <c r="AJ26" s="57" t="s">
+        <v>1155</v>
+      </c>
+      <c r="AM26" s="53" t="s">
         <v>1230</v>
       </c>
-      <c r="P26" s="37" t="s">
+      <c r="AP26" s="53" t="s">
         <v>1231</v>
-      </c>
-      <c r="X26" s="53" t="s">
-        <v>1232</v>
-      </c>
-      <c r="AD26" s="53" t="s">
-        <v>1233</v>
-      </c>
-      <c r="AJ26" s="57" t="s">
-        <v>1159</v>
-      </c>
-      <c r="AM26" s="53" t="s">
-        <v>1234</v>
-      </c>
-      <c r="AP26" s="53" t="s">
-        <v>1235</v>
       </c>
     </row>
     <row r="27" spans="3:43" x14ac:dyDescent="0.25">
       <c r="E27" s="37" t="s">
+        <v>1232</v>
+      </c>
+      <c r="L27" s="69" t="s">
+        <v>1233</v>
+      </c>
+      <c r="P27" s="38" t="s">
+        <v>1234</v>
+      </c>
+      <c r="X27" s="53" t="s">
+        <v>1235</v>
+      </c>
+      <c r="AD27" s="53" t="s">
         <v>1236</v>
       </c>
-      <c r="L27" s="69" t="s">
+      <c r="AJ27" s="54" t="s">
         <v>1237</v>
       </c>
-      <c r="P27" s="38" t="s">
+      <c r="AM27" s="53" t="s">
         <v>1238</v>
       </c>
-      <c r="X27" s="53" t="s">
+      <c r="AP27" s="53" t="s">
         <v>1239</v>
-      </c>
-      <c r="AD27" s="53" t="s">
-        <v>1240</v>
-      </c>
-      <c r="AJ27" s="54" t="s">
-        <v>1241</v>
-      </c>
-      <c r="AM27" s="53" t="s">
-        <v>1242</v>
-      </c>
-      <c r="AP27" s="53" t="s">
-        <v>1243</v>
       </c>
     </row>
     <row r="28" spans="3:43" x14ac:dyDescent="0.25">
       <c r="E28" s="42" t="s">
-        <v>1244</v>
+        <v>1240</v>
       </c>
       <c r="M28" s="39" t="s">
-        <v>1159</v>
+        <v>1155</v>
       </c>
       <c r="P28" s="41"/>
       <c r="Q28" s="47" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
       <c r="X28" s="53" t="s">
-        <v>1245</v>
+        <v>1241</v>
       </c>
       <c r="AD28" s="53" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
       <c r="AM28" s="53" t="s">
-        <v>1247</v>
+        <v>1243</v>
       </c>
       <c r="AP28" s="54" t="s">
-        <v>1248</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="29" spans="3:43" x14ac:dyDescent="0.25">
       <c r="E29" s="37" t="s">
+        <v>1245</v>
+      </c>
+      <c r="M29" s="37" t="s">
+        <v>1246</v>
+      </c>
+      <c r="Q29" s="37" t="s">
+        <v>1247</v>
+      </c>
+      <c r="X29" s="53" t="s">
+        <v>1248</v>
+      </c>
+      <c r="AD29" s="53" t="s">
         <v>1249</v>
       </c>
-      <c r="M29" s="37" t="s">
+      <c r="AM29" s="53" t="s">
         <v>1250</v>
       </c>
-      <c r="Q29" s="37" t="s">
-        <v>1251</v>
-      </c>
-      <c r="X29" s="53" t="s">
-        <v>1252</v>
-      </c>
-      <c r="AD29" s="53" t="s">
-        <v>1253</v>
-      </c>
-      <c r="AM29" s="53" t="s">
-        <v>1254</v>
-      </c>
       <c r="AQ29" s="57" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="30" spans="3:43" x14ac:dyDescent="0.25">
       <c r="E30" s="37" t="s">
+        <v>1251</v>
+      </c>
+      <c r="M30" s="42" t="s">
+        <v>1252</v>
+      </c>
+      <c r="Q30" s="37" t="s">
+        <v>1253</v>
+      </c>
+      <c r="X30" s="53" t="s">
+        <v>1254</v>
+      </c>
+      <c r="AD30" s="53" t="s">
         <v>1255</v>
       </c>
-      <c r="M30" s="42" t="s">
+      <c r="AM30" s="53" t="s">
         <v>1256</v>
       </c>
-      <c r="Q30" s="37" t="s">
+      <c r="AQ30" s="53" t="s">
         <v>1257</v>
-      </c>
-      <c r="X30" s="53" t="s">
-        <v>1258</v>
-      </c>
-      <c r="AD30" s="53" t="s">
-        <v>1259</v>
-      </c>
-      <c r="AM30" s="53" t="s">
-        <v>1260</v>
-      </c>
-      <c r="AQ30" s="53" t="s">
-        <v>1261</v>
       </c>
     </row>
     <row r="31" spans="3:43" x14ac:dyDescent="0.25">
       <c r="E31" s="37" t="s">
+        <v>1258</v>
+      </c>
+      <c r="Q31" s="37" t="s">
+        <v>1259</v>
+      </c>
+      <c r="X31" s="54" t="s">
+        <v>1260</v>
+      </c>
+      <c r="AD31" s="53" t="s">
+        <v>1261</v>
+      </c>
+      <c r="AM31" s="53" t="s">
         <v>1262</v>
       </c>
-      <c r="Q31" s="37" t="s">
+      <c r="AQ31" s="53" t="s">
         <v>1263</v>
-      </c>
-      <c r="X31" s="54" t="s">
-        <v>1264</v>
-      </c>
-      <c r="AD31" s="53" t="s">
-        <v>1265</v>
-      </c>
-      <c r="AM31" s="53" t="s">
-        <v>1266</v>
-      </c>
-      <c r="AQ31" s="53" t="s">
-        <v>1267</v>
       </c>
     </row>
     <row r="32" spans="3:43" x14ac:dyDescent="0.25">
       <c r="E32" s="37" t="s">
+        <v>1264</v>
+      </c>
+      <c r="Q32" s="38" t="s">
+        <v>1265</v>
+      </c>
+      <c r="Y32" s="52" t="s">
+        <v>1266</v>
+      </c>
+      <c r="AD32" s="53" t="s">
+        <v>1267</v>
+      </c>
+      <c r="AM32" s="53" t="s">
         <v>1268</v>
       </c>
-      <c r="Q32" s="38" t="s">
+      <c r="AQ32" s="53" t="s">
         <v>1269</v>
-      </c>
-      <c r="Y32" s="52" t="s">
-        <v>1270</v>
-      </c>
-      <c r="AD32" s="53" t="s">
-        <v>1271</v>
-      </c>
-      <c r="AM32" s="53" t="s">
-        <v>1272</v>
-      </c>
-      <c r="AQ32" s="53" t="s">
-        <v>1273</v>
       </c>
     </row>
     <row r="33" spans="1:43" x14ac:dyDescent="0.25">
       <c r="E33" s="37" t="s">
+        <v>1270</v>
+      </c>
+      <c r="Y33" s="54" t="s">
+        <v>1271</v>
+      </c>
+      <c r="AD33" s="53" t="s">
+        <v>1272</v>
+      </c>
+      <c r="AM33" s="53" t="s">
+        <v>1273</v>
+      </c>
+      <c r="AQ33" s="53" t="s">
         <v>1274</v>
-      </c>
-      <c r="Y33" s="54" t="s">
-        <v>1275</v>
-      </c>
-      <c r="AD33" s="53" t="s">
-        <v>1276</v>
-      </c>
-      <c r="AM33" s="53" t="s">
-        <v>1277</v>
-      </c>
-      <c r="AQ33" s="53" t="s">
-        <v>1278</v>
       </c>
     </row>
     <row r="34" spans="1:43" x14ac:dyDescent="0.25">
       <c r="E34" s="37" t="s">
-        <v>1279</v>
+        <v>1275</v>
       </c>
       <c r="AD34" s="54" t="s">
-        <v>1280</v>
+        <v>1276</v>
       </c>
       <c r="AM34" s="53" t="s">
-        <v>1281</v>
+        <v>1277</v>
       </c>
       <c r="AQ34" s="53" t="s">
-        <v>1282</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="35" spans="1:43" x14ac:dyDescent="0.25">
       <c r="E35" s="38" t="s">
-        <v>1283</v>
+        <v>1279</v>
       </c>
       <c r="AE35" s="57" t="s">
-        <v>1270</v>
+        <v>1266</v>
       </c>
       <c r="AM35" s="53" t="s">
-        <v>1284</v>
+        <v>1280</v>
       </c>
       <c r="AQ35" s="53" t="s">
-        <v>1285</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="36" spans="1:43" x14ac:dyDescent="0.25">
       <c r="AE36" s="54" t="s">
-        <v>1286</v>
+        <v>1282</v>
       </c>
       <c r="AM36" s="53" t="s">
-        <v>1287</v>
+        <v>1283</v>
       </c>
       <c r="AQ36" s="53" t="s">
-        <v>1288</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="37" spans="1:43" x14ac:dyDescent="0.25">
       <c r="AM37" s="54" t="s">
-        <v>1289</v>
+        <v>1285</v>
       </c>
       <c r="AQ37" s="53" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="38" spans="1:43" x14ac:dyDescent="0.25">
       <c r="AQ38" s="53" t="s">
-        <v>1291</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="39" spans="1:43" x14ac:dyDescent="0.25">
       <c r="AQ39" s="53" t="s">
-        <v>1292</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="40" spans="1:43" x14ac:dyDescent="0.25">
       <c r="AQ40" s="53" t="s">
-        <v>1293</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="41" spans="1:43" x14ac:dyDescent="0.25">
       <c r="AQ41" s="53" t="s">
-        <v>1294</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="42" spans="1:43" x14ac:dyDescent="0.25">
       <c r="AQ42" s="53" t="s">
-        <v>1295</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="43" spans="1:43" x14ac:dyDescent="0.25">
       <c r="AQ43" s="53" t="s">
-        <v>1296</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="44" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>1297</v>
+        <v>1293</v>
       </c>
       <c r="B44" t="s">
-        <v>1298</v>
+        <v>1294</v>
       </c>
       <c r="AQ44" s="53" t="s">
-        <v>1299</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="45" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>1300</v>
+        <v>1296</v>
       </c>
       <c r="B45" t="s">
-        <v>1301</v>
+        <v>1297</v>
       </c>
       <c r="AQ45" s="53" t="s">
-        <v>1302</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="46" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>1303</v>
+        <v>1299</v>
       </c>
       <c r="B46" t="s">
-        <v>1304</v>
+        <v>1300</v>
       </c>
       <c r="AQ46" s="53" t="s">
-        <v>1305</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="47" spans="1:43" x14ac:dyDescent="0.25">
       <c r="AQ47" s="53" t="s">
-        <v>1306</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="48" spans="1:43" x14ac:dyDescent="0.25">
       <c r="AQ48" s="53" t="s">
-        <v>1307</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="49" spans="43:44" x14ac:dyDescent="0.25">
       <c r="AQ49" s="53" t="s">
-        <v>1308</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="50" spans="43:44" x14ac:dyDescent="0.25">
       <c r="AQ50" s="53" t="s">
-        <v>1309</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="51" spans="43:44" x14ac:dyDescent="0.25">
       <c r="AQ51" s="53" t="s">
-        <v>1310</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="52" spans="43:44" x14ac:dyDescent="0.25">
       <c r="AQ52" s="54" t="s">
-        <v>1311</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="53" spans="43:44" x14ac:dyDescent="0.25">
       <c r="AR53" s="57" t="s">
-        <v>1159</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="54" spans="43:44" x14ac:dyDescent="0.25">
       <c r="AR54" s="53" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="55" spans="43:44" x14ac:dyDescent="0.25">
       <c r="AR55" s="53" t="s">
-        <v>1313</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="56" spans="43:44" x14ac:dyDescent="0.25">
       <c r="AR56" s="53" t="s">
-        <v>1314</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="57" spans="43:44" x14ac:dyDescent="0.25">
       <c r="AR57" s="53" t="s">
-        <v>1315</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="58" spans="43:44" x14ac:dyDescent="0.25">
       <c r="AR58" s="53" t="s">
-        <v>1316</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="59" spans="43:44" x14ac:dyDescent="0.25">
       <c r="AR59" s="53" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="60" spans="43:44" x14ac:dyDescent="0.25">
       <c r="AR60" s="53" t="s">
-        <v>1318</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="61" spans="43:44" x14ac:dyDescent="0.25">
       <c r="AR61" s="53" t="s">
-        <v>1319</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="62" spans="43:44" x14ac:dyDescent="0.25">
       <c r="AR62" s="53" t="s">
-        <v>1320</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="63" spans="43:44" x14ac:dyDescent="0.25">
       <c r="AR63" s="53" t="s">
-        <v>1321</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="64" spans="43:44" x14ac:dyDescent="0.25">
       <c r="AR64" s="53" t="s">
-        <v>1322</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="65" spans="44:44" x14ac:dyDescent="0.25">
       <c r="AR65" s="53" t="s">
-        <v>1323</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="66" spans="44:44" x14ac:dyDescent="0.25">
       <c r="AR66" s="53" t="s">
-        <v>1324</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="67" spans="44:44" x14ac:dyDescent="0.25">
       <c r="AR67" s="53" t="s">
-        <v>1325</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="68" spans="44:44" x14ac:dyDescent="0.25">
       <c r="AR68" s="53" t="s">
-        <v>1326</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="69" spans="44:44" x14ac:dyDescent="0.25">
       <c r="AR69" s="54" t="s">
-        <v>1327</v>
+        <v>1323</v>
       </c>
     </row>
   </sheetData>

--- a/estructuras.xlsx
+++ b/estructuras.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rrcastillo\OneDrive - ine.gob.gt\ENCABIH\Validador\INE_ValidacionENCOVI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FAE4C23-358D-4E7F-AA14-AAA0D042F578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42247E17-FDC5-49AD-8026-1B1DA8FE0C5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{5DF76A10-6C90-44E7-B2E0-BC24ACCD86DF}"/>
   </bookViews>
@@ -5401,6 +5401,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
@@ -5408,8 +5410,6 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
@@ -8360,8 +8360,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="88"/>
-      <c r="B1" s="88"/>
+      <c r="A1" s="85"/>
+      <c r="B1" s="85"/>
       <c r="C1" s="21"/>
       <c r="D1" s="21"/>
     </row>
@@ -8374,8 +8374,8 @@
       <c r="D2" s="21"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="88"/>
-      <c r="B3" s="88"/>
+      <c r="A3" s="85"/>
+      <c r="B3" s="85"/>
       <c r="C3" s="21"/>
       <c r="D3" s="21"/>
     </row>
@@ -8388,72 +8388,72 @@
       <c r="D4" s="21"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="88"/>
-      <c r="B5" s="88"/>
+      <c r="A5" s="85"/>
+      <c r="B5" s="85"/>
       <c r="C5" s="21"/>
       <c r="D5" s="21"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="84"/>
-      <c r="B6" s="85" t="s">
+      <c r="A6" s="86"/>
+      <c r="B6" s="87" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="D6" s="87"/>
+      <c r="D6" s="84"/>
     </row>
     <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="84"/>
-      <c r="B7" s="86"/>
+      <c r="A7" s="86"/>
+      <c r="B7" s="88"/>
       <c r="C7" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="D7" s="87"/>
+      <c r="D7" s="84"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="84"/>
-      <c r="B8" s="85" t="s">
+      <c r="A8" s="86"/>
+      <c r="B8" s="87" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="D8" s="87"/>
+      <c r="D8" s="84"/>
     </row>
     <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="84"/>
+      <c r="A9" s="86"/>
       <c r="B9" s="89"/>
       <c r="C9" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="D9" s="87"/>
+      <c r="D9" s="84"/>
     </row>
     <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="84"/>
-      <c r="B10" s="86"/>
+      <c r="A10" s="86"/>
+      <c r="B10" s="88"/>
       <c r="C10" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="D10" s="87"/>
+      <c r="D10" s="84"/>
     </row>
     <row r="11" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="84"/>
-      <c r="B11" s="85" t="s">
+      <c r="A11" s="86"/>
+      <c r="B11" s="87" t="s">
         <v>145</v>
       </c>
       <c r="C11" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="D11" s="87"/>
+      <c r="D11" s="84"/>
     </row>
     <row r="12" spans="1:4" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="84"/>
-      <c r="B12" s="86"/>
+      <c r="A12" s="86"/>
+      <c r="B12" s="88"/>
       <c r="C12" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="D12" s="87"/>
+      <c r="D12" s="84"/>
     </row>
     <row r="13" spans="1:4" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A13" s="21"/>
@@ -8476,186 +8476,186 @@
       <c r="D14" s="21"/>
     </row>
     <row r="15" spans="1:4" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="84"/>
-      <c r="B15" s="85" t="s">
+      <c r="A15" s="86"/>
+      <c r="B15" s="87" t="s">
         <v>152</v>
       </c>
       <c r="C15" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="D15" s="87"/>
+      <c r="D15" s="84"/>
     </row>
     <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="84"/>
+      <c r="A16" s="86"/>
       <c r="B16" s="89"/>
       <c r="C16" s="26" t="s">
         <v>154</v>
       </c>
-      <c r="D16" s="87"/>
+      <c r="D16" s="84"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="84"/>
+      <c r="A17" s="86"/>
       <c r="B17" s="89"/>
       <c r="C17" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="D17" s="87"/>
+      <c r="D17" s="84"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="84"/>
+      <c r="A18" s="86"/>
       <c r="B18" s="89"/>
       <c r="C18" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="D18" s="87"/>
+      <c r="D18" s="84"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="84"/>
+      <c r="A19" s="86"/>
       <c r="B19" s="89"/>
       <c r="C19" s="30" t="s">
         <v>157</v>
       </c>
-      <c r="D19" s="87"/>
+      <c r="D19" s="84"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="84"/>
-      <c r="B20" s="86"/>
+      <c r="A20" s="86"/>
+      <c r="B20" s="88"/>
       <c r="C20" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="D20" s="87"/>
+      <c r="D20" s="84"/>
     </row>
     <row r="21" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="84"/>
-      <c r="B21" s="85" t="s">
+      <c r="A21" s="86"/>
+      <c r="B21" s="87" t="s">
         <v>159</v>
       </c>
       <c r="C21" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="D21" s="87"/>
+      <c r="D21" s="84"/>
     </row>
     <row r="22" spans="1:4" ht="42" x14ac:dyDescent="0.35">
-      <c r="A22" s="84"/>
+      <c r="A22" s="86"/>
       <c r="B22" s="89"/>
       <c r="C22" s="31" t="s">
         <v>161</v>
       </c>
-      <c r="D22" s="87"/>
+      <c r="D22" s="84"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="84"/>
+      <c r="A23" s="86"/>
       <c r="B23" s="89"/>
       <c r="C23" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="D23" s="87"/>
+      <c r="D23" s="84"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="84"/>
+      <c r="A24" s="86"/>
       <c r="B24" s="89"/>
       <c r="C24" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="D24" s="87"/>
+      <c r="D24" s="84"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="84"/>
+      <c r="A25" s="86"/>
       <c r="B25" s="89"/>
       <c r="C25" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="D25" s="87"/>
+      <c r="D25" s="84"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="84"/>
+      <c r="A26" s="86"/>
       <c r="B26" s="89"/>
       <c r="C26" s="26" t="s">
         <v>163</v>
       </c>
-      <c r="D26" s="87"/>
+      <c r="D26" s="84"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="84"/>
+      <c r="A27" s="86"/>
       <c r="B27" s="89"/>
       <c r="C27" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="D27" s="87"/>
+      <c r="D27" s="84"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="84"/>
+      <c r="A28" s="86"/>
       <c r="B28" s="89"/>
       <c r="C28" s="26" t="s">
         <v>164</v>
       </c>
-      <c r="D28" s="87"/>
+      <c r="D28" s="84"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="84"/>
+      <c r="A29" s="86"/>
       <c r="B29" s="89"/>
       <c r="C29" s="30" t="s">
         <v>157</v>
       </c>
-      <c r="D29" s="87"/>
+      <c r="D29" s="84"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="84"/>
+      <c r="A30" s="86"/>
       <c r="B30" s="89"/>
       <c r="C30" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="D30" s="87"/>
+      <c r="D30" s="84"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="84"/>
+      <c r="A31" s="86"/>
       <c r="B31" s="89"/>
       <c r="C31" s="30" t="s">
         <v>157</v>
       </c>
-      <c r="D31" s="87"/>
+      <c r="D31" s="84"/>
     </row>
     <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="84"/>
+      <c r="A32" s="86"/>
       <c r="B32" s="89"/>
       <c r="C32" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="D32" s="87"/>
+      <c r="D32" s="84"/>
     </row>
     <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="84"/>
-      <c r="B33" s="85" t="s">
+      <c r="A33" s="86"/>
+      <c r="B33" s="87" t="s">
         <v>167</v>
       </c>
       <c r="C33" s="24" t="s">
         <v>168</v>
       </c>
-      <c r="D33" s="87"/>
+      <c r="D33" s="84"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="84"/>
+      <c r="A34" s="86"/>
       <c r="B34" s="89"/>
       <c r="C34" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="D34" s="87"/>
+      <c r="D34" s="84"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="84"/>
+      <c r="A35" s="86"/>
       <c r="B35" s="89"/>
       <c r="C35" s="26" t="s">
         <v>170</v>
       </c>
-      <c r="D35" s="87"/>
+      <c r="D35" s="84"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="84"/>
-      <c r="B36" s="86"/>
+      <c r="A36" s="86"/>
+      <c r="B36" s="88"/>
       <c r="C36" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="D36" s="87"/>
+      <c r="D36" s="84"/>
     </row>
     <row r="37" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A37" s="21"/>
@@ -8668,107 +8668,89 @@
       <c r="D37" s="21"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="84"/>
-      <c r="B38" s="85" t="s">
+      <c r="A38" s="86"/>
+      <c r="B38" s="87" t="s">
         <v>174</v>
       </c>
       <c r="C38" s="24" t="s">
         <v>175</v>
       </c>
-      <c r="D38" s="87"/>
+      <c r="D38" s="84"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="84"/>
+      <c r="A39" s="86"/>
       <c r="B39" s="89"/>
       <c r="C39" s="34" t="s">
         <v>176</v>
       </c>
-      <c r="D39" s="87"/>
+      <c r="D39" s="84"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="84"/>
+      <c r="A40" s="86"/>
       <c r="B40" s="89"/>
       <c r="C40" s="26" t="s">
         <v>177</v>
       </c>
-      <c r="D40" s="87"/>
+      <c r="D40" s="84"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="84"/>
+      <c r="A41" s="86"/>
       <c r="B41" s="89"/>
       <c r="C41" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="D41" s="87"/>
+      <c r="D41" s="84"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="84"/>
+      <c r="A42" s="86"/>
       <c r="B42" s="89"/>
       <c r="C42" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="D42" s="87"/>
+      <c r="D42" s="84"/>
     </row>
     <row r="43" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="84"/>
+      <c r="A43" s="86"/>
       <c r="B43" s="89"/>
       <c r="C43" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="D43" s="87"/>
+      <c r="D43" s="84"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="84"/>
-      <c r="B44" s="86"/>
+      <c r="A44" s="86"/>
+      <c r="B44" s="88"/>
       <c r="C44" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="D44" s="87"/>
+      <c r="D44" s="84"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="84"/>
-      <c r="B45" s="85" t="s">
+      <c r="A45" s="86"/>
+      <c r="B45" s="87" t="s">
         <v>182</v>
       </c>
       <c r="C45" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="D45" s="87"/>
+      <c r="D45" s="84"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="84"/>
-      <c r="B46" s="86"/>
+      <c r="A46" s="86"/>
+      <c r="B46" s="88"/>
       <c r="C46" s="35" t="s">
         <v>184</v>
       </c>
-      <c r="D46" s="87"/>
+      <c r="D46" s="84"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="88"/>
-      <c r="B47" s="88"/>
+      <c r="A47" s="85"/>
+      <c r="B47" s="85"/>
       <c r="C47" s="21"/>
       <c r="D47" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="B15:B20"/>
-    <mergeCell ref="D15:D20"/>
-    <mergeCell ref="A21:A32"/>
-    <mergeCell ref="B21:B32"/>
-    <mergeCell ref="D21:D32"/>
     <mergeCell ref="A45:A46"/>
     <mergeCell ref="B45:B46"/>
     <mergeCell ref="D45:D46"/>
@@ -8779,6 +8761,24 @@
     <mergeCell ref="A38:A44"/>
     <mergeCell ref="B38:B44"/>
     <mergeCell ref="D38:D44"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="B15:B20"/>
+    <mergeCell ref="D15:D20"/>
+    <mergeCell ref="A21:A32"/>
+    <mergeCell ref="B21:B32"/>
+    <mergeCell ref="D21:D32"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8804,8 +8804,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="88"/>
-      <c r="B1" s="88"/>
+      <c r="A1" s="85"/>
+      <c r="B1" s="85"/>
       <c r="C1" s="21"/>
       <c r="D1" s="21"/>
       <c r="E1" s="21"/>
@@ -8910,8 +8910,8 @@
       <c r="F8" s="21"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="88"/>
-      <c r="B9" s="88"/>
+      <c r="A9" s="85"/>
+      <c r="B9" s="85"/>
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -8974,8 +8974,8 @@
       <c r="F13" s="21"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="88"/>
-      <c r="B14" s="88"/>
+      <c r="A14" s="85"/>
+      <c r="B14" s="85"/>
       <c r="C14" s="21"/>
       <c r="D14" s="21"/>
       <c r="E14" s="21"/>
@@ -9002,8 +9002,8 @@
       <c r="F16" s="21"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="88"/>
-      <c r="B17" s="88"/>
+      <c r="A17" s="85"/>
+      <c r="B17" s="85"/>
       <c r="C17" s="65" t="s">
         <v>4</v>
       </c>
@@ -9048,8 +9048,8 @@
       <c r="F19" s="21"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="88"/>
-      <c r="B20" s="88"/>
+      <c r="A20" s="85"/>
+      <c r="B20" s="85"/>
       <c r="C20" s="21"/>
       <c r="D20" s="21"/>
       <c r="E20" s="21"/>
@@ -9086,8 +9086,8 @@
       <c r="F23" s="21"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="88"/>
-      <c r="B24" s="88"/>
+      <c r="A24" s="85"/>
+      <c r="B24" s="85"/>
       <c r="C24" s="21"/>
       <c r="D24" s="21"/>
       <c r="E24" s="21"/>
@@ -9104,8 +9104,8 @@
       <c r="F25" s="21"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="88"/>
-      <c r="B26" s="88"/>
+      <c r="A26" s="85"/>
+      <c r="B26" s="85"/>
       <c r="C26" s="65" t="s">
         <v>4</v>
       </c>
@@ -9144,8 +9144,8 @@
       <c r="F28" s="21"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="88"/>
-      <c r="B29" s="88"/>
+      <c r="A29" s="85"/>
+      <c r="B29" s="85"/>
       <c r="C29" s="21"/>
       <c r="D29" s="21"/>
       <c r="E29" s="21"/>
@@ -9173,9 +9173,9 @@
   </sheetPr>
   <dimension ref="A1:M198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A153" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H167" sqref="H167"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
